--- a/data/trans_orig/P23_1_2016_2023_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023_R2-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>10402</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5129</v>
+        <v>5151</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17662</v>
+        <v>17892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02479838196313424</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01222692498977323</v>
+        <v>0.01227949211679079</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04210728853931048</v>
+        <v>0.04265549549477327</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -763,19 +763,19 @@
         <v>20155</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12259</v>
+        <v>12679</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30064</v>
+        <v>30839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05092828870247254</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03097693339330312</v>
+        <v>0.03203853460267229</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07596580185768168</v>
+        <v>0.07792533663654268</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -784,19 +784,19 @@
         <v>30557</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21566</v>
+        <v>20231</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44302</v>
+        <v>41469</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03748338315342136</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02645437016165906</v>
+        <v>0.02481641927407443</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0543433201110417</v>
+        <v>0.05086826682312683</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>409061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>401801</v>
+        <v>401571</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>414334</v>
+        <v>414312</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9752016180368658</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9578927114606894</v>
+        <v>0.9573445045052265</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9877730750102267</v>
+        <v>0.9877205078832092</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>384</v>
@@ -834,19 +834,19 @@
         <v>375600</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>365691</v>
+        <v>364916</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>383496</v>
+        <v>383076</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9490717112975274</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9240341981423184</v>
+        <v>0.9220746633634573</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9690230666066968</v>
+        <v>0.9679614653973276</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>767</v>
@@ -855,19 +855,19 @@
         <v>784661</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>770916</v>
+        <v>773749</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>793652</v>
+        <v>794987</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9625166168465786</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9456566798889583</v>
+        <v>0.9491317331768732</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9735456298383409</v>
+        <v>0.9751835807259256</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>52786</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39842</v>
+        <v>39633</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68829</v>
+        <v>68666</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08939329165214603</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06747280281338483</v>
+        <v>0.06711789495263466</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1165617025068572</v>
+        <v>0.116286098507637</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -980,19 +980,19 @@
         <v>60759</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47018</v>
+        <v>47306</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75941</v>
+        <v>75925</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.107816450518917</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08343207617912263</v>
+        <v>0.08394460079699353</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1347565225157048</v>
+        <v>0.1347274690245617</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>111</v>
@@ -1001,19 +1001,19 @@
         <v>113546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94936</v>
+        <v>95341</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>137268</v>
+        <v>136283</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09838973484438722</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0822636366454069</v>
+        <v>0.08261511393197454</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1189452692192722</v>
+        <v>0.1180921454783494</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>537710</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>521667</v>
+        <v>521830</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>550654</v>
+        <v>550863</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.910606708347854</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8834382974931428</v>
+        <v>0.8837139014923632</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9325271971866151</v>
+        <v>0.9328821050473655</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>517</v>
@@ -1051,19 +1051,19 @@
         <v>502785</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>487603</v>
+        <v>487619</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>516526</v>
+        <v>516238</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.892183549481083</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8652434774842951</v>
+        <v>0.8652725309754381</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.916567923820877</v>
+        <v>0.9160553992030064</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1035</v>
@@ -1072,19 +1072,19 @@
         <v>1040494</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1016772</v>
+        <v>1017757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1059104</v>
+        <v>1058699</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9016102651556128</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8810547307807283</v>
+        <v>0.8819078545216507</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9177363633545931</v>
+        <v>0.9173848860680255</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>85886</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69878</v>
+        <v>71339</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106519</v>
+        <v>106739</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.128566626186696</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.10460352009461</v>
+        <v>0.1067911413456675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1594529003066234</v>
+        <v>0.1597823291469296</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -1197,19 +1197,19 @@
         <v>99152</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80790</v>
+        <v>82692</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>119286</v>
+        <v>119690</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1501253636462815</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1223236588670984</v>
+        <v>0.1252030904383351</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1806106163821745</v>
+        <v>0.1812227602522096</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -1218,19 +1218,19 @@
         <v>185037</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>160886</v>
+        <v>159962</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>210911</v>
+        <v>211372</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1392846029007128</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1211051440375546</v>
+        <v>0.1204096508858981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1587609593006105</v>
+        <v>0.1591081405202722</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>582139</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>561506</v>
+        <v>561286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>598147</v>
+        <v>596686</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.871433373813304</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8405470996933766</v>
+        <v>0.8402176708530703</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8953964799053901</v>
+        <v>0.8932088586543324</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>566</v>
@@ -1268,19 +1268,19 @@
         <v>561307</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>541173</v>
+        <v>540769</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>579669</v>
+        <v>577767</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8498746363537185</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8193893836178254</v>
+        <v>0.8187772397477904</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8776763411329016</v>
+        <v>0.874796909561665</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1123</v>
@@ -1289,19 +1289,19 @@
         <v>1143446</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1117572</v>
+        <v>1117111</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1167597</v>
+        <v>1168521</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8607153970992872</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8412390406993895</v>
+        <v>0.8408918594797278</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8788948559624454</v>
+        <v>0.8795903491141019</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>130786</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110771</v>
+        <v>111493</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>155833</v>
+        <v>152851</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2024399752478049</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1714599649288282</v>
+        <v>0.1725768428629697</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2412099291523691</v>
+        <v>0.2365939047923596</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -1414,19 +1414,19 @@
         <v>101575</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83206</v>
+        <v>84788</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121382</v>
+        <v>123821</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1570030263700017</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1286100949372868</v>
+        <v>0.1310563610727023</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1876194457878307</v>
+        <v>0.1913884880540639</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>213</v>
@@ -1435,19 +1435,19 @@
         <v>232361</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>204219</v>
+        <v>207108</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>261672</v>
+        <v>263006</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.17970547160929</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1579412230367741</v>
+        <v>0.1601752825273733</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2023743223542818</v>
+        <v>0.2034057987780654</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>515262</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>490215</v>
+        <v>493197</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>535277</v>
+        <v>534555</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7975600247521951</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7587900708476312</v>
+        <v>0.7634060952076405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8285400350711721</v>
+        <v>0.8274231571370303</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>506</v>
@@ -1485,19 +1485,19 @@
         <v>545386</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>525579</v>
+        <v>523140</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>563755</v>
+        <v>562173</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8429969736299984</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8123805542121693</v>
+        <v>0.8086115119459361</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8713899050627132</v>
+        <v>0.8689436389272976</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>969</v>
@@ -1506,19 +1506,19 @@
         <v>1060648</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1031337</v>
+        <v>1030003</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1088790</v>
+        <v>1085901</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.82029452839071</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7976256776457181</v>
+        <v>0.7965942012219346</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8420587769632263</v>
+        <v>0.8398247174726268</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>159951</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>138620</v>
+        <v>138023</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>182256</v>
+        <v>181078</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3346823544153105</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2900499690342322</v>
+        <v>0.2888010847287563</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3813532311986044</v>
+        <v>0.3788901961167307</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -1631,19 +1631,19 @@
         <v>69436</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55338</v>
+        <v>54629</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89445</v>
+        <v>87481</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1400652285880867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1116264641845903</v>
+        <v>0.1101976453101139</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1804271710675501</v>
+        <v>0.1764663337789448</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>201</v>
@@ -1652,19 +1652,19 @@
         <v>229387</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>203690</v>
+        <v>203330</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>256851</v>
+        <v>256766</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2355926436060465</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2092009605824736</v>
+        <v>0.2088314969132197</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2638002065781182</v>
+        <v>0.2637125714365726</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>317967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>295662</v>
+        <v>296840</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>339298</v>
+        <v>339895</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6653176455846895</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6186467688013956</v>
+        <v>0.6211098038832693</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7099500309657678</v>
+        <v>0.7111989152712438</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>374</v>
@@ -1702,19 +1702,19 @@
         <v>426304</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>406295</v>
+        <v>408259</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>440402</v>
+        <v>441111</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8599347714119133</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8195728289324499</v>
+        <v>0.8235336662210552</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8883735358154098</v>
+        <v>0.8898023546898861</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>655</v>
@@ -1723,19 +1723,19 @@
         <v>744271</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>716807</v>
+        <v>716892</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>769968</v>
+        <v>770328</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7644073563939534</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.736199793421882</v>
+        <v>0.7362874285634279</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7907990394175265</v>
+        <v>0.7911685030867803</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>141364</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>123090</v>
+        <v>125024</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>158225</v>
+        <v>161659</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4228279663462521</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3681701381038158</v>
+        <v>0.3739527771300843</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.473261121863617</v>
+        <v>0.4835299825595903</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1848,19 +1848,19 @@
         <v>31736</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20985</v>
+        <v>21883</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42974</v>
+        <v>44016</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08401031833979629</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05555158960181956</v>
+        <v>0.05792787037117647</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1137601502032623</v>
+        <v>0.116517897798313</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>168</v>
@@ -1869,19 +1869,19 @@
         <v>173100</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>149562</v>
+        <v>151478</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>197539</v>
+        <v>195831</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2430865383683039</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2100324989435705</v>
+        <v>0.2127225182302543</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2774065489946305</v>
+        <v>0.275007903436536</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>192966</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>176105</v>
+        <v>172671</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>211240</v>
+        <v>209306</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5771720336537479</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5267388781363829</v>
+        <v>0.5164700174404095</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6318298618961843</v>
+        <v>0.6260472228699155</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>324</v>
@@ -1919,19 +1919,19 @@
         <v>346026</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>334788</v>
+        <v>333746</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>356777</v>
+        <v>355879</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9159896816602037</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8862398497967376</v>
+        <v>0.8834821022016865</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9444484103981804</v>
+        <v>0.9420721296288235</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>511</v>
@@ -1940,19 +1940,19 @@
         <v>538992</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>514553</v>
+        <v>516261</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>562530</v>
+        <v>560614</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.756913461631696</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7225934510053692</v>
+        <v>0.724992096563464</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7899675010564294</v>
+        <v>0.7872774817697457</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>122106</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106984</v>
+        <v>107249</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136763</v>
+        <v>135265</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.476728704355431</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4176891648080053</v>
+        <v>0.4187231556958999</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5339529062575605</v>
+        <v>0.5281061244414048</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2065,19 +2065,19 @@
         <v>4367</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12421</v>
+        <v>11648</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01094749789763447</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003011248506111332</v>
+        <v>0.003035666064928964</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03113971740837333</v>
+        <v>0.02920187442895397</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>145</v>
@@ -2086,19 +2086,19 @@
         <v>126473</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>107020</v>
+        <v>108375</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>146545</v>
+        <v>148394</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1930834036356963</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.163385476846468</v>
+        <v>0.1654529717640507</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2237276048369902</v>
+        <v>0.2265495003488597</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>134027</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>119370</v>
+        <v>120868</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>149149</v>
+        <v>148884</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.523271295644569</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4660470937424394</v>
+        <v>0.471893875558595</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5823108351919947</v>
+        <v>0.5812768443040999</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>297</v>
@@ -2136,19 +2136,19 @@
         <v>394517</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>386463</v>
+        <v>387236</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>397683</v>
+        <v>397673</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9890525021023655</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9688602825916264</v>
+        <v>0.9707981255710458</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9969887514938887</v>
+        <v>0.996964333935071</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>456</v>
@@ -2157,19 +2157,19 @@
         <v>528544</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>508472</v>
+        <v>506623</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>547997</v>
+        <v>546642</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8069165963643037</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7762723951630097</v>
+        <v>0.7734504996511403</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8366145231535319</v>
+        <v>0.8345470282359492</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>703281</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>653028</v>
+        <v>656745</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>749061</v>
+        <v>754237</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2073099158523271</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1924966950859066</v>
+        <v>0.1935922155425106</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2208045904944239</v>
+        <v>0.2223303309293249</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>365</v>
@@ -2282,19 +2282,19 @@
         <v>387179</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>351017</v>
+        <v>348383</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>427816</v>
+        <v>426604</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1094004155006001</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0991823492206081</v>
+        <v>0.09843825104383849</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1208826575741407</v>
+        <v>0.1205401677505838</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1046</v>
@@ -2303,19 +2303,19 @@
         <v>1090460</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1027544</v>
+        <v>1030706</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1151965</v>
+        <v>1163082</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.157319150229109</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1482422452210958</v>
+        <v>0.1486984950277908</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1661922763723642</v>
+        <v>0.1677962366239324</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>2689133</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2643353</v>
+        <v>2638177</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2739386</v>
+        <v>2735669</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7926900841476729</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7791954095055762</v>
+        <v>0.777669669070675</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8075033049140935</v>
+        <v>0.8064077844574894</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2968</v>
@@ -2353,19 +2353,19 @@
         <v>3151924</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3111287</v>
+        <v>3112499</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3188086</v>
+        <v>3190720</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8905995844993999</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8791173424258593</v>
+        <v>0.879459832249416</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9008176507793918</v>
+        <v>0.9015617489561615</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5516</v>
@@ -2374,19 +2374,19 @@
         <v>5841057</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5779552</v>
+        <v>5768435</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5903973</v>
+        <v>5900811</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.842680849770891</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8338077236276359</v>
+        <v>0.8322037633760674</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8517577547789049</v>
+        <v>0.8513015049722087</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>6465</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1514</v>
+        <v>1528</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17972</v>
+        <v>19406</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01585368576744437</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003712248958804691</v>
+        <v>0.00374598192929184</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0440718037038297</v>
+        <v>0.04758805839172211</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -2742,19 +2742,19 @@
         <v>20280</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10756</v>
+        <v>10493</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33728</v>
+        <v>34588</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05632665573319407</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02987298531103224</v>
+        <v>0.02914246502062224</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09367729843824051</v>
+        <v>0.09606444542772985</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -2763,19 +2763,19 @@
         <v>26745</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15376</v>
+        <v>15195</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43679</v>
+        <v>44095</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03483185489674992</v>
+        <v>0.03483185489674993</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02002439844838677</v>
+        <v>0.01978909049016394</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05688545689905445</v>
+        <v>0.05742755034176597</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>401328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389821</v>
+        <v>388387</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406279</v>
+        <v>406265</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9841463142325557</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9559281962961703</v>
+        <v>0.9524119416082779</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9962877510411954</v>
+        <v>0.9962540180707082</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>194</v>
@@ -2813,19 +2813,19 @@
         <v>339768</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>326320</v>
+        <v>325460</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>349292</v>
+        <v>349555</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.943673344266806</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9063227015617594</v>
+        <v>0.90393555457227</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9701270146889677</v>
+        <v>0.9708575349793778</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>363</v>
@@ -2834,19 +2834,19 @@
         <v>741097</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>724163</v>
+        <v>723747</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>752466</v>
+        <v>752647</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.96516814510325</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9431145431009454</v>
+        <v>0.9425724496582341</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9799756015516132</v>
+        <v>0.9802109095098359</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>25734</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15373</v>
+        <v>14922</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42030</v>
+        <v>41383</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05396146613479385</v>
+        <v>0.05396146613479386</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03223677994568667</v>
+        <v>0.03129105635251674</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08813304033794546</v>
+        <v>0.0867770607680818</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -2959,19 +2959,19 @@
         <v>34069</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22159</v>
+        <v>23677</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47756</v>
+        <v>47853</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06799027652198512</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.044223035393307</v>
+        <v>0.04725164036142094</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09530563651372767</v>
+        <v>0.09549959470535758</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -2980,19 +2980,19 @@
         <v>59802</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43360</v>
+        <v>44547</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77208</v>
+        <v>80295</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06114939167616378</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04433709364677674</v>
+        <v>0.04555026078620365</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07894727558365171</v>
+        <v>0.0821034554044467</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>451156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>434860</v>
+        <v>435507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>461517</v>
+        <v>461968</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9460385338652062</v>
+        <v>0.9460385338652061</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9118669596620542</v>
+        <v>0.9132229392319181</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9677632200543133</v>
+        <v>0.9687089436474833</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>430</v>
@@ -3030,19 +3030,19 @@
         <v>467014</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>453327</v>
+        <v>453230</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>478924</v>
+        <v>477406</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9320097234780148</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.904694363486273</v>
+        <v>0.9045004052946425</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9557769646066929</v>
+        <v>0.9527483596385791</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>716</v>
@@ -3051,19 +3051,19 @@
         <v>918171</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>900765</v>
+        <v>897678</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>934613</v>
+        <v>933426</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9388506083238362</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9210527244163481</v>
+        <v>0.917896544595553</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9556629063532234</v>
+        <v>0.9544497392137961</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>49282</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36028</v>
+        <v>35848</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67489</v>
+        <v>67675</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07953139663387697</v>
+        <v>0.07953139663387694</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05814192022766919</v>
+        <v>0.05785176403292214</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1089124381057574</v>
+        <v>0.1092130593265409</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -3176,19 +3176,19 @@
         <v>56501</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44868</v>
+        <v>44819</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69618</v>
+        <v>69878</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09081738882227472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07211892475961088</v>
+        <v>0.07203968608598095</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1119012988944736</v>
+        <v>0.1123197192619807</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>115</v>
@@ -3197,19 +3197,19 @@
         <v>105783</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>85797</v>
+        <v>88665</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126202</v>
+        <v>129107</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08518566392414199</v>
+        <v>0.08518566392414198</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06909074322086195</v>
+        <v>0.07140026660839238</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1016286075972833</v>
+        <v>0.1039674758186082</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>570377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>552170</v>
+        <v>551984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>583631</v>
+        <v>583811</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9204686033661232</v>
+        <v>0.9204686033661231</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.891087561894243</v>
+        <v>0.8907869406734593</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9418580797723308</v>
+        <v>0.9421482359670778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>772</v>
@@ -3247,19 +3247,19 @@
         <v>565638</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>552521</v>
+        <v>552261</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>577271</v>
+        <v>577320</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9091826111777253</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8880987011055264</v>
+        <v>0.8876802807380191</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9278810752403887</v>
+        <v>0.927960313914019</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1276</v>
@@ -3268,19 +3268,19 @@
         <v>1136015</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1115596</v>
+        <v>1112691</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1156001</v>
+        <v>1153133</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9148143360758582</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8983713924027165</v>
+        <v>0.896032524181392</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9309092567791378</v>
+        <v>0.9285997333916075</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>114573</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93902</v>
+        <v>94861</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>140115</v>
+        <v>137505</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1637980681873493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1342457134901845</v>
+        <v>0.1356168907821282</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2003141067430839</v>
+        <v>0.1965823873757715</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>138</v>
@@ -3393,19 +3393,19 @@
         <v>92481</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78838</v>
+        <v>79332</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>105846</v>
+        <v>109469</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1257427216863883</v>
+        <v>0.1257427216863884</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1071924027238747</v>
+        <v>0.1078642500518786</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.143914983805707</v>
+        <v>0.1488409642591209</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>240</v>
@@ -3414,19 +3414,19 @@
         <v>207054</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>184613</v>
+        <v>181376</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>235235</v>
+        <v>232622</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1442929938097229</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1286544713341486</v>
+        <v>0.1263984240675542</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1639322264915954</v>
+        <v>0.1621107869772017</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>584903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>559361</v>
+        <v>561971</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>605574</v>
+        <v>604615</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8362019318126507</v>
+        <v>0.8362019318126506</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7996858932569162</v>
+        <v>0.8034176126242285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8657542865098156</v>
+        <v>0.8643831092178718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1001</v>
@@ -3464,19 +3464,19 @@
         <v>642997</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>629632</v>
+        <v>626009</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>656640</v>
+        <v>656146</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8742572783136116</v>
+        <v>0.8742572783136117</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8560850161942931</v>
+        <v>0.8511590357408788</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8928075972761254</v>
+        <v>0.8921357499481208</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1563</v>
@@ -3485,19 +3485,19 @@
         <v>1227900</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1199719</v>
+        <v>1202332</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1250341</v>
+        <v>1253578</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8557070061902771</v>
+        <v>0.855707006190277</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8360677735084047</v>
+        <v>0.8378892130227981</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8713455286658516</v>
+        <v>0.8736015759324457</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>166184</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>146515</v>
+        <v>146699</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>189610</v>
+        <v>188986</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2732097777839579</v>
+        <v>0.2732097777839578</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2408734218792144</v>
+        <v>0.241176626691207</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3117230830044664</v>
+        <v>0.3106972218716464</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>149</v>
@@ -3610,19 +3610,19 @@
         <v>94326</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>82298</v>
+        <v>80070</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108382</v>
+        <v>108659</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1549239398963862</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1351690808795566</v>
+        <v>0.1315094792552507</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1780088177775463</v>
+        <v>0.1784648446968636</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>328</v>
@@ -3631,19 +3631,19 @@
         <v>260510</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>233465</v>
+        <v>236096</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>287892</v>
+        <v>286257</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2140381518637781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1918172122520283</v>
+        <v>0.1939793869696897</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.236535020697185</v>
+        <v>0.2351916827338713</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>442081</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>418655</v>
+        <v>419279</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>461750</v>
+        <v>461566</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7267902222160422</v>
+        <v>0.7267902222160421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6882769169955335</v>
+        <v>0.6893027781283536</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7591265781207855</v>
+        <v>0.7588233733087932</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>853</v>
@@ -3681,19 +3681,19 @@
         <v>514529</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>500473</v>
+        <v>500196</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>526557</v>
+        <v>528785</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8450760601036137</v>
+        <v>0.8450760601036139</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8219911822224536</v>
+        <v>0.8215351553031364</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8648309191204434</v>
+        <v>0.8684905207447494</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1336</v>
@@ -3702,19 +3702,19 @@
         <v>956610</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>929228</v>
+        <v>930863</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>983655</v>
+        <v>981024</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7859618481362219</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.763464979302815</v>
+        <v>0.7648083172661285</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8081827877479718</v>
+        <v>0.8060206130303101</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>171602</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>153308</v>
+        <v>154702</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>187389</v>
+        <v>190382</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4215445485287055</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3766041724877896</v>
+        <v>0.3800282276479473</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4603245810528691</v>
+        <v>0.4676775597375309</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -3827,19 +3827,19 @@
         <v>49251</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40457</v>
+        <v>40927</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59281</v>
+        <v>60759</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1121456857709646</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09212188651601423</v>
+        <v>0.0931924268801821</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1349865425180294</v>
+        <v>0.1383514684287668</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>324</v>
@@ -3848,19 +3848,19 @@
         <v>220853</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>200856</v>
+        <v>199939</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>241937</v>
+        <v>243451</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2609794972888392</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2373497706154022</v>
+        <v>0.236265518886419</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2858948586452604</v>
+        <v>0.2876833029717059</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>235478</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>219691</v>
+        <v>216698</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253772</v>
+        <v>252378</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5784554514712945</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5396754189471309</v>
+        <v>0.5323224402624691</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6233958275122102</v>
+        <v>0.6199717723520528</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>738</v>
@@ -3898,19 +3898,19 @@
         <v>389915</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>379885</v>
+        <v>378407</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>398709</v>
+        <v>398239</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8878543142290355</v>
+        <v>0.8878543142290354</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8650134574819708</v>
+        <v>0.8616485315712333</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9078781134839858</v>
+        <v>0.9068075731198183</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1073</v>
@@ -3919,19 +3919,19 @@
         <v>625393</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>604309</v>
+        <v>602795</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>645390</v>
+        <v>646307</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7390205027111607</v>
+        <v>0.7390205027111608</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7141051413547396</v>
+        <v>0.7123166970282945</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7626502293845974</v>
+        <v>0.7637344811135811</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>129568</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>114807</v>
+        <v>115870</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>143889</v>
+        <v>144261</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4176934927551423</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3701096010337585</v>
+        <v>0.3735370118988822</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4638608169767832</v>
+        <v>0.4650622212285479</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -4044,19 +4044,19 @@
         <v>19635</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13450</v>
+        <v>14120</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26561</v>
+        <v>26956</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04226097005824699</v>
+        <v>0.04226097005824698</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02894961418339093</v>
+        <v>0.03039138464977838</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05716806747619559</v>
+        <v>0.05801880400616502</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>221</v>
@@ -4065,19 +4065,19 @@
         <v>149203</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>131002</v>
+        <v>131463</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>165960</v>
+        <v>167210</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1925674380223516</v>
+        <v>0.1925674380223515</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1690770870943873</v>
+        <v>0.1696723688011897</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2141956424745292</v>
+        <v>0.2158082095249004</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>180630</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>166309</v>
+        <v>165937</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>195391</v>
+        <v>194328</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5823065072448574</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5361391830232167</v>
+        <v>0.5349377787714521</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6298903989662414</v>
+        <v>0.6264629881011177</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>847</v>
@@ -4115,19 +4115,19 @@
         <v>444974</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>438048</v>
+        <v>437653</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>451159</v>
+        <v>450489</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.957739029941753</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9428319325238043</v>
+        <v>0.9419811959938349</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.971050385816609</v>
+        <v>0.9696086153502217</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1118</v>
@@ -4136,19 +4136,19 @@
         <v>625604</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>608847</v>
+        <v>607597</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>643805</v>
+        <v>643344</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8074325619776483</v>
+        <v>0.8074325619776485</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7858043575254708</v>
+        <v>0.7841917904750998</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8309229129056127</v>
+        <v>0.8303276311988105</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>663408</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>617455</v>
+        <v>619828</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>709894</v>
+        <v>712187</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1879682382793692</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.174948186469735</v>
+        <v>0.1756205147130682</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2011394400142911</v>
+        <v>0.201789171700307</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>526</v>
@@ -4261,19 +4261,19 @@
         <v>366543</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>336342</v>
+        <v>339648</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>401101</v>
+        <v>399663</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0982325421126517</v>
+        <v>0.09823254211265169</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09013864715065766</v>
+        <v>0.09102477497782381</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1074939738558148</v>
+        <v>0.1071087043942256</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1289</v>
@@ -4282,19 +4282,19 @@
         <v>1029951</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>973152</v>
+        <v>972218</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1081848</v>
+        <v>1086563</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1418520114208492</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1340292665893213</v>
+        <v>0.1339007272906237</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1489997439297438</v>
+        <v>0.1496490313241992</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>2865953</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2819467</v>
+        <v>2817174</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2911906</v>
+        <v>2909533</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8120317617206307</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7988605599857089</v>
+        <v>0.7982108282996929</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8250518135302651</v>
+        <v>0.8243794852869318</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4835</v>
@@ -4332,19 +4332,19 @@
         <v>3364837</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3330279</v>
+        <v>3331717</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3395038</v>
+        <v>3391732</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9017674578873482</v>
+        <v>0.9017674578873481</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8925060261441852</v>
+        <v>0.8928912956057744</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9098613528493423</v>
+        <v>0.9089752250221763</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7445</v>
@@ -4353,19 +4353,19 @@
         <v>6230789</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6178892</v>
+        <v>6174177</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6287588</v>
+        <v>6288522</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8581479885791508</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8510002560702562</v>
+        <v>0.8503509686758008</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.865970733410679</v>
+        <v>0.8660992727093764</v>
       </c>
     </row>
     <row r="27">
